--- a/document/doc.xlsx
+++ b/document/doc.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="QA Sử" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>No.</t>
   </si>
@@ -222,6 +223,36 @@
   </si>
   <si>
     <t>Sử</t>
+  </si>
+  <si>
+    <t>Phuong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đã làm </t>
+  </si>
+  <si>
+    <t>hiển thị static</t>
+  </si>
+  <si>
+    <t>chưa làm</t>
+  </si>
+  <si>
+    <t>phần quan trọng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chưa có thông  tin </t>
+  </si>
+  <si>
+    <t>Người làm</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Phase 1( 1 tháng ): HTML với thực hiện hành đông cơ bản của trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 2( 1 tháng): Thực hiện các chức năng, flow yêu cầu  và xử lý data từ API  </t>
   </si>
 </sst>
 </file>
@@ -268,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +330,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -393,12 +430,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,14 +463,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,19 +480,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -466,10 +501,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,8 +528,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -762,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,11 +829,18 @@
     <col min="2" max="2" width="49.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,421 +860,556 @@
         <v>5</v>
       </c>
       <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="J1" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="G2" s="32"/>
+      <c r="J2" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="J3" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="J4" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="J5" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="J6" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="J7" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="J8" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="J9" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="27" t="s">
+      <c r="E10" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="J10" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="E11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="20"/>
+      <c r="J11" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="E12" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="20"/>
+      <c r="J12" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="E13" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="20"/>
+      <c r="J13" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="E14" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="20"/>
+      <c r="J14" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="J15" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="J16" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="J17" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23" t="s">
+      <c r="G18" s="39"/>
+      <c r="J18" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25" t="s">
+      <c r="G19" s="39"/>
+      <c r="J19" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="G20" s="39"/>
+      <c r="J20" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="32"/>
+      <c r="J21" s="37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+    <row r="22" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
         <v>19</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="38" t="s">
+        <v>73</v>
+      </c>
       <c r="F22" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="G22" s="32"/>
+      <c r="J22" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="J23" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="J24" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
         <v>22</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="J25" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="8" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="3"/>
+      <c r="J26" s="37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1219,8 +1417,9 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1228,8 +1427,9 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1237,8 +1437,9 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1246,8 +1447,9 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1255,6 +1457,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
+      <c r="J31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1272,5 +1475,18 @@
     <hyperlink ref="F26" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/doc.xlsx
+++ b/document/doc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
   <si>
     <t>No.</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t xml:space="preserve">Phase 2( 1 tháng): Thực hiện các chức năng, flow yêu cầu  và xử lý data từ API  </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Link : https://www.figma.com/file/u5Yk2YgrPb71oLyxqBNm1I/NRM?node-id=0%3A1</t>
   </si>
 </sst>
 </file>
@@ -553,6 +562,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>494837</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>883672</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>75318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="494837" y="6153150"/>
+          <a:ext cx="13523810" cy="5542668"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -818,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,6 +934,9 @@
         <v>61</v>
       </c>
       <c r="G2" s="32"/>
+      <c r="I2">
+        <v>4</v>
+      </c>
       <c r="J2" s="36" t="s">
         <v>65</v>
       </c>
@@ -904,6 +959,9 @@
         <v>10</v>
       </c>
       <c r="G3" s="3"/>
+      <c r="I3">
+        <v>2</v>
+      </c>
       <c r="J3" s="36" t="s">
         <v>66</v>
       </c>
@@ -926,6 +984,9 @@
         <v>10</v>
       </c>
       <c r="G4" s="3"/>
+      <c r="I4">
+        <v>2</v>
+      </c>
       <c r="J4" s="36" t="s">
         <v>66</v>
       </c>
@@ -950,6 +1011,9 @@
       <c r="G5" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
       <c r="J5" s="36" t="s">
         <v>66</v>
       </c>
@@ -978,6 +1042,9 @@
       <c r="G6" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
       <c r="J6" s="36" t="s">
         <v>66</v>
       </c>
@@ -1004,6 +1071,9 @@
         <v>10</v>
       </c>
       <c r="G7" s="3"/>
+      <c r="I7">
+        <v>2</v>
+      </c>
       <c r="J7" s="36" t="s">
         <v>66</v>
       </c>
@@ -1030,6 +1100,9 @@
       <c r="G8" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
       <c r="J8" s="36" t="s">
         <v>66</v>
       </c>
@@ -1055,6 +1128,9 @@
         <v>23</v>
       </c>
       <c r="G9" s="3"/>
+      <c r="I9">
+        <v>2</v>
+      </c>
       <c r="J9" s="36" t="s">
         <v>66</v>
       </c>
@@ -1083,6 +1159,9 @@
       <c r="G10" s="20" t="s">
         <v>64</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
       <c r="J10" s="36" t="s">
         <v>66</v>
       </c>
@@ -1105,6 +1184,9 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="20"/>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="J11" s="36" t="s">
         <v>66</v>
       </c>
@@ -1130,6 +1212,9 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="20"/>
+      <c r="I12">
+        <v>1</v>
+      </c>
       <c r="J12" s="36" t="s">
         <v>66</v>
       </c>
@@ -1155,6 +1240,9 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="20"/>
+      <c r="I13">
+        <v>1</v>
+      </c>
       <c r="J13" s="36" t="s">
         <v>66</v>
       </c>
@@ -1177,6 +1265,9 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="20"/>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="J14" s="36" t="s">
         <v>66</v>
       </c>
@@ -1195,6 +1286,9 @@
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
       <c r="G15" s="3"/>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
       <c r="J15" s="37" t="s">
         <v>65</v>
       </c>
@@ -1213,6 +1307,9 @@
       <c r="E16" s="14"/>
       <c r="F16" s="12"/>
       <c r="G16" s="3"/>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
       <c r="J16" s="37" t="s">
         <v>65</v>
       </c>
@@ -1231,6 +1328,9 @@
       <c r="E17" s="14"/>
       <c r="F17" s="12"/>
       <c r="G17" s="3"/>
+      <c r="I17">
+        <v>3</v>
+      </c>
       <c r="J17" s="36" t="s">
         <v>66</v>
       </c>
@@ -1253,6 +1353,9 @@
         <v>43</v>
       </c>
       <c r="G18" s="39"/>
+      <c r="I18">
+        <v>8</v>
+      </c>
       <c r="J18" s="36" t="s">
         <v>66</v>
       </c>
@@ -1267,6 +1370,9 @@
         <v>44</v>
       </c>
       <c r="G19" s="39"/>
+      <c r="I19">
+        <v>8</v>
+      </c>
       <c r="J19" s="36" t="s">
         <v>66</v>
       </c>
@@ -1281,6 +1387,9 @@
         <v>45</v>
       </c>
       <c r="G20" s="39"/>
+      <c r="I20">
+        <v>8</v>
+      </c>
       <c r="J20" s="36" t="s">
         <v>66</v>
       </c>
@@ -1303,6 +1412,9 @@
         <v>48</v>
       </c>
       <c r="G21" s="32"/>
+      <c r="I21" s="29">
+        <v>6</v>
+      </c>
       <c r="J21" s="37" t="s">
         <v>65</v>
       </c>
@@ -1325,6 +1437,9 @@
         <v>51</v>
       </c>
       <c r="G22" s="32"/>
+      <c r="I22" s="29">
+        <v>5</v>
+      </c>
       <c r="J22" s="36" t="s">
         <v>66</v>
       </c>
@@ -1345,6 +1460,9 @@
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="3"/>
+      <c r="I23" s="29">
+        <v>8</v>
+      </c>
       <c r="J23" s="37" t="s">
         <v>65</v>
       </c>
@@ -1365,6 +1483,9 @@
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="3"/>
+      <c r="I24" s="29">
+        <v>3</v>
+      </c>
       <c r="J24" s="37" t="s">
         <v>65</v>
       </c>
@@ -1385,6 +1506,9 @@
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="3"/>
+      <c r="I25">
+        <v>7</v>
+      </c>
       <c r="J25" s="37" t="s">
         <v>65</v>
       </c>
@@ -1405,6 +1529,9 @@
         <v>60</v>
       </c>
       <c r="G26" s="3"/>
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
       <c r="J26" s="37" t="s">
         <v>65</v>
       </c>
@@ -1458,6 +1585,11 @@
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
       <c r="J31" s="36"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1476,6 +1608,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/document/doc.xlsx
+++ b/document/doc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>No.</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Phase 1( 1 tháng ): HTML với thực hiện hành đông cơ bản của trang</t>
   </si>
   <si>
-    <t xml:space="preserve">Phase 2( 1 tháng): Thực hiện các chức năng, flow yêu cầu  và xử lý data từ API  </t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -262,6 +259,15 @@
   </si>
   <si>
     <t>Link : https://www.figma.com/file/u5Yk2YgrPb71oLyxqBNm1I/NRM?node-id=0%3A1</t>
+  </si>
+  <si>
+    <t>Số thứ tự</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 1.1( 1 tháng): Thực hiện các chức năng, flow yêu cầu  và xử lý data từ API  </t>
+  </si>
+  <si>
+    <t>Thời gian của task 1h = 5.5 usd tổng thời gian là 152h = 19228000 tr</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,14 +523,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -574,8 +577,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>883672</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1093222</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>75318</xdr:rowOff>
     </xdr:to>
@@ -873,7 +876,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,9 +888,9 @@
     <col min="6" max="6" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="27.5703125" customWidth="1"/>
   </cols>
@@ -912,8 +915,14 @@
         <v>5</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="33" t="s">
         <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -937,8 +946,11 @@
       <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="33" t="s">
         <v>65</v>
+      </c>
+      <c r="K2">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -962,8 +974,11 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>66</v>
+      <c r="J3" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -987,8 +1002,11 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>66</v>
+      <c r="J4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1014,8 +1032,11 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="36" t="s">
-        <v>66</v>
+      <c r="J5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
       </c>
       <c r="L5" s="30"/>
       <c r="M5" t="s">
@@ -1045,8 +1066,11 @@
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>66</v>
+      <c r="J6" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
       </c>
       <c r="L6" s="31"/>
       <c r="M6" t="s">
@@ -1074,8 +1098,11 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>66</v>
+      <c r="J7" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" t="s">
@@ -1103,8 +1130,11 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>66</v>
+      <c r="J8" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
       </c>
       <c r="M8" t="s">
         <v>69</v>
@@ -1131,8 +1161,11 @@
       <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>66</v>
+      <c r="J9" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
       </c>
       <c r="L9" s="32"/>
       <c r="M9" t="s">
@@ -1162,8 +1195,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>66</v>
+      <c r="J10" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1187,8 +1223,11 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>66</v>
+      <c r="J11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
       </c>
       <c r="L11" t="s">
         <v>74</v>
@@ -1215,11 +1254,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>66</v>
+      <c r="J12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1243,8 +1285,11 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>66</v>
+      <c r="J13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1268,8 +1313,11 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>66</v>
+      <c r="J14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1287,10 +1335,13 @@
       <c r="F15" s="12"/>
       <c r="G15" s="3"/>
       <c r="I15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1308,13 +1359,16 @@
       <c r="F16" s="12"/>
       <c r="G16" s="3"/>
       <c r="I16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -1331,70 +1385,82 @@
       <c r="I17">
         <v>3</v>
       </c>
-      <c r="J17" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="J17" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="39"/>
+      <c r="G18" s="35"/>
       <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="J18" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="39"/>
+      <c r="G19" s="35"/>
       <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="J19" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="39"/>
+      <c r="G20" s="35"/>
       <c r="I20">
         <v>8</v>
       </c>
-      <c r="J20" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -1415,36 +1481,42 @@
       <c r="I21" s="29">
         <v>6</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="K21" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="38" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="32"/>
       <c r="I22" s="29">
         <v>5</v>
       </c>
-      <c r="J22" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>20</v>
       </c>
@@ -1463,11 +1535,14 @@
       <c r="I23" s="29">
         <v>8</v>
       </c>
-      <c r="J23" s="37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="29">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>21</v>
       </c>
@@ -1486,11 +1561,14 @@
       <c r="I24" s="29">
         <v>3</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="29">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>22</v>
       </c>
@@ -1509,11 +1587,14 @@
       <c r="I25">
         <v>7</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -1530,13 +1611,16 @@
       </c>
       <c r="G26" s="3"/>
       <c r="I26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1544,9 +1628,13 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="33"/>
+      <c r="K27">
+        <f>SUM(K2:K26)</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1554,9 +1642,9 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="3"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1564,9 +1652,9 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1574,9 +1662,9 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="3"/>
-      <c r="J30" s="36"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1584,11 +1672,11 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
-      <c r="J31" s="36"/>
+      <c r="J31" s="33"/>
     </row>
     <row r="34" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/document/doc.xlsx
+++ b/document/doc.xlsx
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="QA Sử" sheetId="2" r:id="rId2"/>
+    <sheet name="SignIn" sheetId="3" r:id="rId2"/>
+    <sheet name="SignUp" sheetId="4" r:id="rId3"/>
+    <sheet name="QA Sử" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>No.</t>
   </si>
@@ -268,13 +270,260 @@
   </si>
   <si>
     <t>Thời gian của task 1h = 5.5 usd tổng thời gian là 152h = 19228000 tr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">After login, redirect to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>/lounge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>signIn</t>
+  </si>
+  <si>
+    <t>API Usage</t>
+  </si>
+  <si>
+    <t>This modal open from Footer &gt; Join / SignIn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">After submit OK, auto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>signIn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> and redirect to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>/account/complete-profile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">API Usage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>updateAccount</t>
+    </r>
+  </si>
+  <si>
+    <t>Step4: Update more profile info</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">After submit OK, auto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>signIn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> and redirect to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>/personal-profile page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">API Usage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>signUpConfirm</t>
+    </r>
+  </si>
+  <si>
+    <t>Verification code</t>
+  </si>
+  <si>
+    <t>Step3: Verification</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">After submit OK, next to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Step3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> modal</t>
+    </r>
+  </si>
+  <si>
+    <t>Step2: Enter username, password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">After submit OK, next to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Step2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> modal</t>
+    </r>
+  </si>
+  <si>
+    <t>signUpValidateEmail</t>
+  </si>
+  <si>
+    <t>API Usage signUpValidateEmail</t>
+  </si>
+  <si>
+    <t>Step1: Enter email</t>
+  </si>
+  <si>
+    <t>Step3: Verification &amp; auto SignIn</t>
+  </si>
+  <si>
+    <t>Step2: Enter username &amp; password</t>
+  </si>
+  <si>
+    <t>SignUp Flow</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">API Usage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>signUp</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +562,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +619,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -460,12 +734,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,6 +859,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -546,9 +883,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -605,6 +950,1499 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4572000" cy="2647950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85B9423-E425-578D-5A84-C215464858C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="257175"/>
+          <a:ext cx="4572000" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EA3519-E926-D365-C1E6-B6B6C0FC8825}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E85B9423-E425-578D-5A84-C215464858C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="1304925"/>
+          <a:ext cx="1152525" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>username</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920EA299-6521-41C6-A926-E2E2341A3D40}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{27EA3519-E926-D365-C1E6-B6B6C0FC8825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="1676400"/>
+          <a:ext cx="1152525" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>password</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4572000" cy="2638425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80982C89-17FF-8627-5D22-CEB3A53A6FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="1009650"/>
+          <a:ext cx="4572000" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4572000" cy="3095625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23C7D3D-3D45-8BA7-4BEA-C217B88AC382}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{80982C89-17FF-8627-5D22-CEB3A53A6FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="3971925"/>
+          <a:ext cx="4572000" cy="3095625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E9AFBB-B78C-44E5-C865-EC7D90AC3A94}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A23C7D3D-3D45-8BA7-4BEA-C217B88AC382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="1304925"/>
+          <a:ext cx="1581150" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>email</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E696A7E6-7A2B-41E0-AD98-9C043931D56A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{80E9AFBB-B78C-44E5-C865-EC7D90AC3A94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="5019675"/>
+          <a:ext cx="1581150" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>username</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0452A6F8-6917-446D-8AD5-2F429BC4A396}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E696A7E6-7A2B-41E0-AD98-9C043931D56A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="5381625"/>
+          <a:ext cx="1581150" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>password</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6819900" cy="5153025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6B1B25-6CE8-03D5-D765-C4F4B4764AE8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0452A6F8-6917-446D-8AD5-2F429BC4A396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="9505950"/>
+          <a:ext cx="6819900" cy="5153025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6AB406-AE00-3CB1-B650-58062AAFE769}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8E6B1B25-6CE8-03D5-D765-C4F4B4764AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="10134600"/>
+          <a:ext cx="2276475" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BDF31AC-86BE-EBBA-B541-AD2F15FBF791}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2A6AB406-AE00-3CB1-B650-58062AAFE769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="10439400"/>
+          <a:ext cx="952500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>do later</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE3D286-6857-4FB8-B2E5-76AB7E556556}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1BDF31AC-86BE-EBBA-B541-AD2F15FBF791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3133725" y="14373225"/>
+          <a:ext cx="2543175" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>please add save button here</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51349081-A87E-4BAB-9BF1-6346C81CE672}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4CE3D286-6857-4FB8-B2E5-76AB7E556556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="10448925"/>
+          <a:ext cx="952500" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>phone</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16128F94-C41D-4A9E-BA5C-AEA7B41B72D7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{51349081-A87E-4BAB-9BF1-6346C81CE672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="10782300"/>
+          <a:ext cx="3124200" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>remove password fileds</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -915,7 +2753,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="35" t="s">
         <v>78</v>
       </c>
       <c r="J1" s="33" t="s">
@@ -1393,23 +3231,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="I18">
         <v>8</v>
       </c>
@@ -1421,15 +3259,15 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="35"/>
+      <c r="G19" s="36"/>
       <c r="I19">
         <v>8</v>
       </c>
@@ -1441,15 +3279,15 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="35"/>
+      <c r="G20" s="36"/>
       <c r="I20">
         <v>8</v>
       </c>
@@ -1702,6 +3540,215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J4:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K12" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="53"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="51"/>
+      <c r="J41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="50"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="48"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="50"/>
+      <c r="C43" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="48"/>
+      <c r="K43" s="43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="50"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="48"/>
+      <c r="K44" s="43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="50"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="48"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="50"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="48"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="50"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="48"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="47"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="45"/>
+    </row>
+    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N54" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/document/doc.xlsx
+++ b/document/doc.xlsx
@@ -862,6 +862,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -883,17 +894,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3231,23 +3231,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="48">
         <v>17</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="51" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="47"/>
       <c r="I18">
         <v>8</v>
       </c>
@@ -3259,15 +3259,15 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="47"/>
       <c r="I19">
         <v>8</v>
       </c>
@@ -3279,15 +3279,15 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="47"/>
       <c r="I20">
         <v>8</v>
       </c>
@@ -3560,12 +3560,12 @@
       <c r="J6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="36" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3579,8 +3579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3617,12 +3617,12 @@
       <c r="K11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="37" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="36" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3632,99 +3632,99 @@
       </c>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="36" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="43" t="s">
+      <c r="K26" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="53"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="51"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="44"/>
       <c r="J41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="50"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="41"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="50"/>
-      <c r="C43" s="49" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="48"/>
-      <c r="K43" s="43" t="s">
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="41"/>
+      <c r="K43" s="36" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="48"/>
-      <c r="K44" s="43" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="41"/>
+      <c r="K44" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="50"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="48"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="50"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="48"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="50"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49" t="s">
+      <c r="B47" s="43"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="H47" s="48"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="45"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="52" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
@@ -3732,12 +3732,12 @@
       </c>
     </row>
     <row r="54" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="N54" s="43" t="s">
+      <c r="N54" s="36" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="55" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="N55" s="43" t="s">
+      <c r="N55" s="36" t="s">
         <v>85</v>
       </c>
     </row>

--- a/document/doc.xlsx
+++ b/document/doc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t>No.</t>
   </si>
@@ -215,12 +215,6 @@
     <t>https://newligion.com/index.html</t>
   </si>
   <si>
-    <t>chưa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chưa </t>
-  </si>
-  <si>
     <t>Hiển thị static</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
   </si>
   <si>
     <t xml:space="preserve">Phase 1.1( 1 tháng): Thực hiện các chức năng, flow yêu cầu  và xử lý data từ API  </t>
-  </si>
-  <si>
-    <t>Thời gian của task 1h = 5.5 usd tổng thời gian là 152h = 19228000 tr</t>
   </si>
   <si>
     <r>
@@ -517,6 +508,12 @@
       </rPr>
       <t>signUp</t>
     </r>
+  </si>
+  <si>
+    <t>Thời gian của task 1h = 5.5 usd ( tháng 1: 72h, 80h tháng 2)tổng thời gian là 152h = 19228000 tr</t>
+  </si>
+  <si>
+    <t>HTML, API</t>
   </si>
 </sst>
 </file>
@@ -799,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,6 +891,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -922,8 +921,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1093222</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35947</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>75318</xdr:rowOff>
     </xdr:to>
@@ -2714,7 +2713,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,13 +2721,13 @@
     <col min="2" max="2" width="49.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="27.5703125" customWidth="1"/>
   </cols>
@@ -2754,13 +2753,13 @@
       </c>
       <c r="G1" s="3"/>
       <c r="I1" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2775,7 +2774,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>61</v>
@@ -2785,11 +2784,9 @@
         <v>4</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2">
-        <v>16</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -2803,7 +2800,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>10</v>
@@ -2813,27 +2810,27 @@
         <v>2</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="K3" s="54">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3"/>
@@ -2841,11 +2838,9 @@
         <v>2</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
@@ -2859,26 +2854,22 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K5" s="54"/>
       <c r="L5" s="30"/>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2893,26 +2884,22 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K6" s="54"/>
       <c r="L6" s="31"/>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2927,7 +2914,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>10</v>
@@ -2937,45 +2924,45 @@
         <v>2</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="K7" s="54">
+        <v>6</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="G8" s="3"/>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="K8" s="54">
+        <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2990,7 +2977,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>23</v>
@@ -3000,14 +2987,14 @@
         <v>2</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="K9" s="54">
+        <v>6</v>
       </c>
       <c r="L9" s="32"/>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3024,20 +3011,20 @@
         <v>26</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10">
-        <v>0.5</v>
+        <v>64</v>
+      </c>
+      <c r="K10" s="54">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3054,7 +3041,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="20"/>
@@ -3062,13 +3049,13 @@
         <v>1</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
+        <v>64</v>
+      </c>
+      <c r="K11" s="54">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3085,7 +3072,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="20"/>
@@ -3093,13 +3080,13 @@
         <v>1</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12">
-        <v>0.5</v>
+        <v>64</v>
+      </c>
+      <c r="K12" s="54">
+        <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3116,7 +3103,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="20"/>
@@ -3124,10 +3111,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
+        <v>64</v>
+      </c>
+      <c r="K13" s="54">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3144,7 +3131,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="20"/>
@@ -3152,10 +3139,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14">
-        <v>0.5</v>
+        <v>64</v>
+      </c>
+      <c r="K14" s="54">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3173,14 +3160,12 @@
       <c r="F15" s="12"/>
       <c r="G15" s="3"/>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K15" s="54"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
@@ -3197,14 +3182,12 @@
       <c r="F16" s="12"/>
       <c r="G16" s="3"/>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
@@ -3224,11 +3207,9 @@
         <v>3</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48">
@@ -3242,7 +3223,7 @@
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>43</v>
@@ -3252,11 +3233,9 @@
         <v>8</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18">
-        <v>4</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
@@ -3272,11 +3251,9 @@
         <v>8</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19">
-        <v>4</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K19" s="54"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
@@ -3292,11 +3269,9 @@
         <v>8</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -3310,7 +3285,7 @@
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>48</v>
@@ -3320,11 +3295,9 @@
         <v>6</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="29">
-        <v>26</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K21" s="54"/>
     </row>
     <row r="22" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -3338,7 +3311,7 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>51</v>
@@ -3348,11 +3321,9 @@
         <v>5</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="29">
-        <v>26</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
@@ -3366,7 +3337,7 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="3"/>
@@ -3374,11 +3345,9 @@
         <v>8</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="29">
-        <v>6.5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K23" s="54"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
@@ -3392,7 +3361,7 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="3"/>
@@ -3400,11 +3369,9 @@
         <v>3</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="29">
-        <v>7.5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K24" s="54"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
@@ -3418,7 +3385,7 @@
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="3"/>
@@ -3426,11 +3393,9 @@
         <v>7</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="29">
-        <v>8</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K25" s="54"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -3449,14 +3414,12 @@
       </c>
       <c r="G26" s="3"/>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26">
-        <v>0.5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K26" s="54"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -3467,9 +3430,9 @@
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
       <c r="J27" s="33"/>
-      <c r="K27">
+      <c r="K27" s="54">
         <f>SUM(K2:K26)</f>
-        <v>152</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3481,6 +3444,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="3"/>
       <c r="J28" s="33"/>
+      <c r="K28" s="55"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -3491,6 +3455,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
       <c r="J29" s="33"/>
+      <c r="K29" s="55"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -3514,7 +3479,7 @@
     </row>
     <row r="34" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3553,20 +3518,20 @@
   <sheetData>
     <row r="4" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J8" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3579,7 +3544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -3587,58 +3552,58 @@
   <sheetData>
     <row r="2" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="8:12" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="8:12" x14ac:dyDescent="0.25">
       <c r="K12" s="36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K25" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K26" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
@@ -3650,7 +3615,7 @@
       <c r="G41" s="45"/>
       <c r="H41" s="44"/>
       <c r="J41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -3665,7 +3630,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="43"/>
       <c r="C43" s="42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
@@ -3673,7 +3638,7 @@
       <c r="G43" s="42"/>
       <c r="H43" s="41"/>
       <c r="K43" s="36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -3685,7 +3650,7 @@
       <c r="G44" s="42"/>
       <c r="H44" s="41"/>
       <c r="K44" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -3713,7 +3678,7 @@
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
       <c r="G47" s="42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H47" s="41"/>
     </row>
@@ -3728,17 +3693,17 @@
     </row>
     <row r="52" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N54" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N55" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/document/doc.xlsx
+++ b/document/doc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="101">
   <si>
     <t>No.</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>Phase 1( 1 tháng ): HTML với thực hiện hành đông cơ bản của trang</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>?</t>
@@ -796,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,23 +822,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -870,29 +855,47 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2713,7 +2716,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2752,14 +2755,14 @@
         <v>5</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="I1" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="33" t="s">
+      <c r="I1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="27" t="s">
         <v>70</v>
       </c>
       <c r="K1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2779,14 +2782,14 @@
       <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="26"/>
       <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="54"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -2800,7 +2803,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>10</v>
@@ -2809,71 +2812,75 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3"/>
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="41">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="3"/>
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="30"/>
+      <c r="K5" s="41">
+        <v>4</v>
+      </c>
+      <c r="L5" s="24"/>
       <c r="M5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -2884,7 +2891,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>10</v>
@@ -2893,11 +2900,11 @@
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="31"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="25"/>
       <c r="M6" t="s">
         <v>69</v>
       </c>
@@ -2914,7 +2921,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>10</v>
@@ -2923,13 +2930,13 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="41">
         <v>6</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="18"/>
       <c r="M7" t="s">
         <v>66</v>
       </c>
@@ -2946,7 +2953,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>10</v>
@@ -2955,10 +2962,10 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="41">
         <v>6</v>
       </c>
       <c r="M8" t="s">
@@ -2977,7 +2984,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>23</v>
@@ -2986,72 +2993,72 @@
       <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="54">
-        <v>6</v>
-      </c>
-      <c r="L9" s="32"/>
+      <c r="K9" s="41">
+        <v>8</v>
+      </c>
+      <c r="L9" s="26"/>
       <c r="M9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="17" t="s">
         <v>62</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="41">
         <v>1</v>
       </c>
       <c r="L11" t="s">
@@ -3059,94 +3066,94 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="17"/>
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="54">
+      <c r="K12" s="41">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -3156,19 +3163,21 @@
         <v>36</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="3"/>
       <c r="I15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="54"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -3178,19 +3187,21 @@
         <v>38</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="3"/>
       <c r="I16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="54"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -3200,133 +3211,135 @@
         <v>40</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="3"/>
       <c r="I17">
         <v>3</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="54"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="54">
         <v>17</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="16" t="s">
+      <c r="D18" s="57"/>
+      <c r="E18" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="47"/>
+      <c r="G18" s="53"/>
       <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="54"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="17" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="53"/>
       <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="54"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="18" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="53"/>
       <c r="I20">
         <v>8</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="54"/>
-    </row>
-    <row r="21" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46">
         <v>18</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="24" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="I21" s="29">
+      <c r="G21" s="26"/>
+      <c r="I21" s="23">
         <v>6</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="54"/>
-    </row>
-    <row r="22" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="K21" s="41"/>
+    </row>
+    <row r="22" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="I22" s="29">
+      <c r="G22" s="26"/>
+      <c r="I22" s="23">
         <v>5</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="22">
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -3336,21 +3349,21 @@
         <v>53</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
-        <v>71</v>
+      <c r="E23" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="3"/>
-      <c r="I23" s="29">
+      <c r="I23" s="23">
         <v>8</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="54"/>
+      <c r="K23" s="41"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="22">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3360,21 +3373,21 @@
         <v>55</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="12" t="s">
-        <v>71</v>
+      <c r="E24" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="3"/>
-      <c r="I24" s="29">
+      <c r="I24" s="23">
         <v>3</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="54"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="22">
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -3384,42 +3397,44 @@
         <v>57</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
-        <v>71</v>
+      <c r="E25" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="3"/>
       <c r="I25">
         <v>7</v>
       </c>
-      <c r="J25" s="34" t="s">
+      <c r="J25" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="54"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="46">
         <v>23</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="11" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="52" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="3"/>
       <c r="I26" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="54"/>
+      <c r="J26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="41"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -3429,10 +3444,10 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="54">
+      <c r="J27" s="27"/>
+      <c r="K27" s="41">
         <f>SUM(K2:K26)</f>
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3443,8 +3458,8 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="3"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="55"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="42"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -3454,8 +3469,8 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="55"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="42"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -3465,7 +3480,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="3"/>
-      <c r="J30" s="33"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -3475,11 +3490,11 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
-      <c r="J31" s="33"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="34" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3507,7 +3522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J4:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
@@ -3518,20 +3533,20 @@
   <sheetData>
     <row r="4" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="37" t="s">
         <v>79</v>
       </c>
+      <c r="K6" s="31" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J8" s="36" t="s">
-        <v>78</v>
+      <c r="J8" s="30" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3552,158 +3567,158 @@
   <sheetData>
     <row r="2" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="8:12" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="37" t="s">
         <v>93</v>
       </c>
+      <c r="L11" s="31" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="K12" s="36" t="s">
-        <v>92</v>
+      <c r="K12" s="30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="36" t="s">
-        <v>99</v>
+      <c r="K25" s="30" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="36" t="s">
-        <v>90</v>
+      <c r="K26" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="46"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="44"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="38"/>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="43"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="41"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="43"/>
-      <c r="C43" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="41"/>
-      <c r="K43" s="36" t="s">
+      <c r="B43" s="37"/>
+      <c r="C43" s="36" t="s">
         <v>87</v>
       </c>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="35"/>
+      <c r="K43" s="30" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="43"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="41"/>
-      <c r="K44" s="36" t="s">
-        <v>86</v>
+      <c r="B44" s="37"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="35"/>
+      <c r="K44" s="30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="43"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="41"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="35"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="43"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="41"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="43"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="41"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="38"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="32"/>
     </row>
     <row r="52" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="N54" s="36" t="s">
-        <v>83</v>
+      <c r="N54" s="30" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="N55" s="36" t="s">
-        <v>82</v>
+      <c r="N55" s="30" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/document/doc.xlsx
+++ b/document/doc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
   <si>
     <t>No.</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>HTML, API</t>
+  </si>
+  <si>
+    <t>Note: xong 1,2,3, 8</t>
   </si>
 </sst>
 </file>
@@ -793,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,11 +820,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -857,15 +856,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,23 +868,32 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2713,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2754,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>70</v>
       </c>
       <c r="K1" t="s">
@@ -2782,14 +2781,14 @@
       <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="24"/>
       <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="41"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -2812,11 +2811,11 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="41">
-        <v>6</v>
+      <c r="K3" s="39">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2840,10 +2839,10 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="39">
         <v>4</v>
       </c>
     </row>
@@ -2868,43 +2867,43 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="39">
         <v>4</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="22"/>
       <c r="M5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3"/>
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="25"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="23"/>
       <c r="M6" t="s">
         <v>69</v>
       </c>
@@ -2930,13 +2929,13 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="39">
         <v>6</v>
       </c>
-      <c r="L7" s="18"/>
+      <c r="L7" s="16"/>
       <c r="M7" t="s">
         <v>66</v>
       </c>
@@ -2962,10 +2961,10 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="39">
         <v>6</v>
       </c>
       <c r="M8" t="s">
@@ -2993,72 +2992,72 @@
       <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="39">
         <v>8</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="24"/>
       <c r="M9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="15" t="s">
         <v>62</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="39">
         <v>1</v>
       </c>
       <c r="L11" t="s">
@@ -3066,30 +3065,30 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="39">
         <v>1</v>
       </c>
       <c r="L12" t="s">
@@ -3097,63 +3096,63 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15"/>
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -3162,8 +3161,8 @@
       <c r="C15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F15" s="12"/>
@@ -3171,13 +3170,13 @@
       <c r="I15" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="41"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -3186,8 +3185,8 @@
       <c r="C16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F16" s="12"/>
@@ -3195,13 +3194,13 @@
       <c r="I16" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="41"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -3210,8 +3209,8 @@
       <c r="C17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F17" s="12"/>
@@ -3219,127 +3218,133 @@
       <c r="I17">
         <v>3</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="41"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="49">
         <v>17</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57" t="s">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="48"/>
       <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="41"/>
+      <c r="K18" s="39">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="44" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="48"/>
       <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="41"/>
+      <c r="K19" s="39">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="45" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="53"/>
+      <c r="G20" s="48"/>
       <c r="I20">
         <v>8</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="41"/>
-    </row>
-    <row r="21" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46">
+      <c r="K20" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41">
         <v>18</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="I21" s="23">
+      <c r="G21" s="24"/>
+      <c r="I21" s="21">
         <v>6</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="41"/>
-    </row>
-    <row r="22" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46">
+      <c r="K21" s="39"/>
+    </row>
+    <row r="22" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41">
         <v>19</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="49" t="s">
+      <c r="D22" s="46"/>
+      <c r="E22" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="I22" s="23">
+      <c r="G22" s="24"/>
+      <c r="I22" s="21">
         <v>5</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="41"/>
+      <c r="K22" s="39"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="20">
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -3349,21 +3354,21 @@
         <v>53</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="3"/>
-      <c r="I23" s="23">
+      <c r="I23" s="21">
         <v>8</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="41"/>
+      <c r="K23" s="39"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="20">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3373,21 +3378,21 @@
         <v>55</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="3"/>
-      <c r="I24" s="23">
+      <c r="I24" s="21">
         <v>3</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="41"/>
+      <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="20">
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -3397,7 +3402,7 @@
         <v>57</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F25" s="12"/>
@@ -3405,36 +3410,36 @@
       <c r="I25">
         <v>7</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="J25" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="41"/>
+      <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="46">
+      <c r="A26" s="41">
         <v>23</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="49" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="47" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="3"/>
       <c r="I26" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="41"/>
+      <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -3444,10 +3449,10 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="41">
+      <c r="J27" s="25"/>
+      <c r="K27" s="39">
         <f>SUM(K2:K26)</f>
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3458,8 +3463,8 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="3"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="42"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="40"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -3469,8 +3474,8 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="42"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -3480,7 +3485,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="3"/>
-      <c r="J30" s="27"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -3490,11 +3495,16 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="25"/>
+    </row>
+    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3540,12 +3550,12 @@
       <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="28" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3597,12 +3607,12 @@
       <c r="K11" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="28" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3612,99 +3622,99 @@
       </c>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="28" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="36"/>
       <c r="J41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="37"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="37"/>
-      <c r="C43" s="36" t="s">
+      <c r="B43" s="35"/>
+      <c r="C43" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="35"/>
-      <c r="K43" s="30" t="s">
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="33"/>
+      <c r="K43" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="35"/>
-      <c r="K44" s="30" t="s">
+      <c r="B44" s="35"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33"/>
+      <c r="K44" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="37"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="33"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="37"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="33"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="37"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36" t="s">
+      <c r="B47" s="35"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="35"/>
+      <c r="H47" s="33"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="30"/>
     </row>
     <row r="52" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
@@ -3712,12 +3722,12 @@
       </c>
     </row>
     <row r="54" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="N54" s="30" t="s">
+      <c r="N54" s="28" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="55" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="N55" s="30" t="s">
+      <c r="N55" s="28" t="s">
         <v>81</v>
       </c>
     </row>
